--- a/database/industries/kashi/kazar/cost/yearly.xlsx
+++ b/database/industries/kashi/kazar/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kazar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28DE760-677F-4360-A247-243AF55080D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B3EEB-229F-419B-97A3-E419F1D898FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -653,12 +653,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -668,7 +668,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -702,7 +702,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +736,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -768,7 +768,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -790,7 +790,7 @@
         <v>309994</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -812,7 +812,7 @@
         <v>339344</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -834,7 +834,7 @@
         <v>1102116</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -856,7 +856,7 @@
         <v>1751454</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -900,7 +900,7 @@
         <v>1751454</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -922,7 +922,7 @@
         <v>20104</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1771558</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -988,7 +988,7 @@
         <v>114792</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>-115039</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1771311</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>1771311</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1086,7 +1086,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1096,7 +1096,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1106,7 +1106,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1138,7 +1138,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>21395</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>12</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>28497</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1362,7 +1362,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1372,7 +1372,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1382,7 +1382,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>34</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1414,7 +1414,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>27</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>68666</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>29</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>31</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>33</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>12</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>74716</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1638,7 +1638,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1648,7 +1648,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1658,7 +1658,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>35</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1690,7 +1690,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>27</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>74210</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>28</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>29</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>30</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>31</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>33</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>4540</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>12</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>80072</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1914,7 +1914,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1924,7 +1924,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1934,7 +1934,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
         <v>36</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1966,7 +1966,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>27</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>15851</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>28</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>29</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>30</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>31</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>32</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>33</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>23141</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2190,7 +2190,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2200,7 +2200,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2210,7 +2210,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
         <v>37</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2242,7 +2242,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>11593</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>8713</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>28</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>93710</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>29</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>30</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>9570</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>32</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>33</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>66374</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
         <v>12</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>193327</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2466,7 +2466,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2476,7 +2476,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2486,7 +2486,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
         <v>39</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2518,7 +2518,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>95431</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>27</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>36433</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>28</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>94900</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>29</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>11382</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>30</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>31</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>15177</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>32</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>7308</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
         <v>33</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>72896</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
         <v>12</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>334321</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2742,7 +2742,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2752,7 +2752,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2762,7 +2762,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
         <v>40</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2794,7 +2794,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>24</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>96915</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>27</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>33230</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>28</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>25988</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
         <v>29</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>11382</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>30</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>31</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>32</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
         <v>33</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>129888</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
         <v>12</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>309994</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3018,7 +3018,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3028,7 +3028,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3038,7 +3038,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
         <v>41</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3070,7 +3070,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>10109</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
         <v>27</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>11916</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
         <v>28</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>162622</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
         <v>29</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
         <v>30</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
         <v>31</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>16359</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
         <v>32</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
         <v>33</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>9382</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
         <v>12</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>217654</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3294,7 +3294,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3304,7 +3304,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3314,7 +3314,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
         <v>42</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3346,7 +3346,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
         <v>24</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>92744000</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
         <v>27</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>407245</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
         <v>28</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>61610782</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
         <v>29</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
         <v>30</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>2207581</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
         <v>31</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>156885246</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
         <v>32</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>23605263</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
         <v>33</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>15624765</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3548,7 +3548,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3558,7 +3558,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3568,7 +3568,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B152" s="7" t="s">
         <v>44</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3600,7 +3600,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
         <v>24</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>157217463</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
         <v>27</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>530583</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
         <v>28</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>75557325</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
         <v>29</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>38714286</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
         <v>30</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>7490566</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
         <v>31</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>164967391</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
         <v>32</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>365400000</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
         <v>33</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>19835646</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3802,7 +3802,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3812,7 +3812,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3822,7 +3822,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
         <v>45</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3854,7 +3854,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
         <v>24</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>154816294</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
         <v>27</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>447783</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
         <v>28</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>129293532</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
         <v>29</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>38714286</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
         <v>30</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>2537736</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>158264151</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
         <v>32</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>93666667</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
         <v>33</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>28609692</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4056,7 +4056,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4066,7 +4066,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4076,7 +4076,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B178" s="7" t="s">
         <v>46</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4108,7 +4108,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
         <v>24</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>95367925</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
         <v>27</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>751751</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
         <v>28</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>63129658</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
         <v>29</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="8" t="s">
         <v>30</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>2681408</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
         <v>31</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>163590000</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="8" t="s">
         <v>32</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>266937500</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
         <v>33</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>2773278</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4310,7 +4310,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4320,7 +4320,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4330,7 +4330,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B191" s="7" t="s">
         <v>47</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4362,7 +4362,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
         <v>48</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
         <v>49</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
         <v>50</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
         <v>51</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
         <v>52</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
         <v>53</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>261588</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
         <v>54</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>7602</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
         <v>55</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>331332</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
         <v>56</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
         <v>57</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>501594</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B203" s="14" t="s">
         <v>12</v>
       </c>

--- a/database/industries/kashi/kazar/cost/yearly.xlsx
+++ b/database/industries/kashi/kazar/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B3EEB-229F-419B-97A3-E419F1D898FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265BD20D-11DD-43DB-9AE3-A1A4EBA393A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -100,61 +100,61 @@
     <t>تن</t>
   </si>
   <si>
+    <t>دولومیت خام</t>
+  </si>
+  <si>
+    <t>منیزیت خام و زینتر شده</t>
+  </si>
+  <si>
+    <t>ادتیو</t>
+  </si>
+  <si>
+    <t>انواع خاک نسوز</t>
+  </si>
+  <si>
+    <t>بوکسیت</t>
+  </si>
+  <si>
+    <t>سیمان</t>
+  </si>
+  <si>
+    <t>سایر</t>
+  </si>
+  <si>
+    <t>مقدار خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>دولومیت خام</t>
-  </si>
-  <si>
-    <t>منیزیت خام و زینتر شده</t>
-  </si>
-  <si>
-    <t>ادتیو</t>
-  </si>
-  <si>
-    <t>انواع خاک نسوز</t>
-  </si>
-  <si>
-    <t>بوکسیت</t>
-  </si>
-  <si>
-    <t>سیمان</t>
-  </si>
-  <si>
-    <t>سایر</t>
-  </si>
-  <si>
-    <t>مقدار خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مقدار موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>مبلغ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ مصرف طی دوره</t>
-  </si>
-  <si>
-    <t>مبلغ موجودی پایان دوره</t>
-  </si>
-  <si>
-    <t>نرخ موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>تن / ریال</t>
-  </si>
-  <si>
-    <t>نرخ خرید طی دوره</t>
   </si>
   <si>
     <t>نرخ مصرف طی دوره</t>
@@ -653,12 +653,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -668,7 +668,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -702,7 +702,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +736,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -768,95 +768,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>147539</v>
+        <v>206186</v>
       </c>
       <c r="F10" s="9">
-        <v>206186</v>
+        <v>222226</v>
       </c>
       <c r="G10" s="9">
-        <v>222226</v>
+        <v>234340</v>
       </c>
       <c r="H10" s="9">
-        <v>234340</v>
+        <v>309994</v>
       </c>
       <c r="I10" s="9">
-        <v>309994</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>560194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>107167</v>
+        <v>147421</v>
       </c>
       <c r="F11" s="11">
-        <v>147421</v>
+        <v>188432</v>
       </c>
       <c r="G11" s="11">
-        <v>188432</v>
+        <v>247159</v>
       </c>
       <c r="H11" s="11">
-        <v>247159</v>
+        <v>339344</v>
       </c>
       <c r="I11" s="11">
-        <v>339344</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>526227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>237297</v>
+        <v>387330</v>
       </c>
       <c r="F12" s="9">
-        <v>387330</v>
+        <v>498765</v>
       </c>
       <c r="G12" s="9">
-        <v>498765</v>
+        <v>737651</v>
       </c>
       <c r="H12" s="9">
-        <v>737651</v>
+        <v>1102116</v>
       </c>
       <c r="I12" s="9">
-        <v>1102116</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1982325</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>492003</v>
+        <v>740937</v>
       </c>
       <c r="F13" s="13">
-        <v>740937</v>
+        <v>909423</v>
       </c>
       <c r="G13" s="13">
-        <v>909423</v>
+        <v>1219150</v>
       </c>
       <c r="H13" s="13">
-        <v>1219150</v>
+        <v>1751454</v>
       </c>
       <c r="I13" s="13">
-        <v>1751454</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3068746</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -878,51 +878,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>492003</v>
+        <v>740937</v>
       </c>
       <c r="F15" s="13">
-        <v>740937</v>
+        <v>909423</v>
       </c>
       <c r="G15" s="13">
-        <v>909423</v>
+        <v>1219150</v>
       </c>
       <c r="H15" s="13">
-        <v>1219150</v>
+        <v>1751454</v>
       </c>
       <c r="I15" s="13">
-        <v>1751454</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3068746</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>9333</v>
+        <v>-7061</v>
       </c>
       <c r="F16" s="9">
-        <v>-7061</v>
+        <v>-23630</v>
       </c>
       <c r="G16" s="9">
-        <v>-23630</v>
+        <v>-2355</v>
       </c>
       <c r="H16" s="9">
-        <v>-2355</v>
+        <v>20104</v>
       </c>
       <c r="I16" s="9">
-        <v>20104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-125654</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -944,108 +944,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>501336</v>
+        <v>733876</v>
       </c>
       <c r="F18" s="15">
-        <v>733876</v>
+        <v>885793</v>
       </c>
       <c r="G18" s="15">
-        <v>885793</v>
+        <v>1216795</v>
       </c>
       <c r="H18" s="15">
-        <v>1216795</v>
+        <v>1771558</v>
       </c>
       <c r="I18" s="15">
-        <v>1771558</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2943092</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>132907</v>
+        <v>121469</v>
       </c>
       <c r="F19" s="11">
-        <v>121469</v>
+        <v>134103</v>
       </c>
       <c r="G19" s="11">
-        <v>134103</v>
+        <v>115076</v>
       </c>
       <c r="H19" s="11">
-        <v>115076</v>
+        <v>114792</v>
       </c>
       <c r="I19" s="11">
-        <v>114792</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>115039</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-121469</v>
+        <v>-134103</v>
       </c>
       <c r="F20" s="9">
-        <v>-134103</v>
+        <v>-115076</v>
       </c>
       <c r="G20" s="9">
-        <v>-115076</v>
+        <v>-114792</v>
       </c>
       <c r="H20" s="9">
-        <v>-114792</v>
+        <v>-115039</v>
       </c>
       <c r="I20" s="9">
-        <v>-115039</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-196822</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>512774</v>
+        <v>721242</v>
       </c>
       <c r="F21" s="13">
-        <v>721242</v>
+        <v>904820</v>
       </c>
       <c r="G21" s="13">
-        <v>904820</v>
+        <v>1217079</v>
       </c>
       <c r="H21" s="13">
-        <v>1217079</v>
+        <v>1771311</v>
       </c>
       <c r="I21" s="13">
-        <v>1771311</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2861309</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>0</v>
+        <v>3176</v>
       </c>
       <c r="F22" s="9">
-        <v>3176</v>
+        <v>12387</v>
       </c>
       <c r="G22" s="9">
-        <v>12387</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -1054,29 +1054,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>512774</v>
+        <v>724418</v>
       </c>
       <c r="F23" s="13">
-        <v>724418</v>
+        <v>917207</v>
       </c>
       <c r="G23" s="13">
-        <v>917207</v>
+        <v>1217079</v>
       </c>
       <c r="H23" s="13">
-        <v>1217079</v>
+        <v>1771311</v>
       </c>
       <c r="I23" s="13">
-        <v>1771311</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2861309</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1086,7 +1086,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1096,7 +1096,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1106,7 +1106,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1138,7 +1138,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1146,83 +1146,83 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="9">
+        <v>42</v>
+      </c>
+      <c r="F29" s="9">
+        <v>90</v>
+      </c>
+      <c r="G29" s="9">
+        <v>107</v>
+      </c>
+      <c r="H29" s="9">
+        <v>125</v>
+      </c>
+      <c r="I29" s="9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F29" s="9">
-        <v>42</v>
-      </c>
-      <c r="G29" s="9">
-        <v>90</v>
-      </c>
-      <c r="H29" s="9">
-        <v>107</v>
-      </c>
-      <c r="I29" s="9">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>28873</v>
       </c>
       <c r="F30" s="11">
-        <v>28873</v>
+        <v>21112</v>
       </c>
       <c r="G30" s="11">
-        <v>21112</v>
+        <v>49382</v>
       </c>
       <c r="H30" s="11">
-        <v>49382</v>
+        <v>21395</v>
       </c>
       <c r="I30" s="11">
-        <v>21395</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23052</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>3650</v>
       </c>
       <c r="F31" s="9">
-        <v>3650</v>
+        <v>2001</v>
       </c>
       <c r="G31" s="9">
-        <v>2001</v>
+        <v>2325</v>
       </c>
       <c r="H31" s="9">
-        <v>2325</v>
+        <v>1521</v>
       </c>
       <c r="I31" s="9">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>2</v>
       </c>
       <c r="F32" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="11">
         <v>1</v>
@@ -1234,125 +1234,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>3548</v>
       </c>
       <c r="F33" s="9">
-        <v>3548</v>
+        <v>2175</v>
       </c>
       <c r="G33" s="9">
-        <v>2175</v>
+        <v>2138</v>
       </c>
       <c r="H33" s="9">
-        <v>2138</v>
+        <v>1108</v>
       </c>
       <c r="I33" s="9">
         <v>1108</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>26</v>
+      <c r="E34" s="11">
+        <v>1400</v>
       </c>
       <c r="F34" s="11">
-        <v>1400</v>
+        <v>62</v>
       </c>
       <c r="G34" s="11">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H34" s="11">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="I34" s="11">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>26</v>
+      <c r="E35" s="9">
+        <v>132</v>
       </c>
       <c r="F35" s="9">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="G35" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H35" s="9">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>26</v>
+      <c r="E36" s="11">
+        <v>5100</v>
       </c>
       <c r="F36" s="11">
-        <v>5100</v>
+        <v>4400</v>
       </c>
       <c r="G36" s="11">
-        <v>4400</v>
+        <v>4617</v>
       </c>
       <c r="H36" s="11">
-        <v>4617</v>
+        <v>4248</v>
       </c>
       <c r="I36" s="11">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>0</v>
+        <v>42747</v>
       </c>
       <c r="F37" s="15">
-        <v>42747</v>
+        <v>29890</v>
       </c>
       <c r="G37" s="15">
-        <v>29890</v>
+        <v>58735</v>
       </c>
       <c r="H37" s="15">
-        <v>58735</v>
+        <v>28497</v>
       </c>
       <c r="I37" s="15">
-        <v>28497</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30710</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1362,7 +1362,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1372,7 +1372,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1382,9 +1382,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1404,7 +1404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1414,7 +1414,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1422,213 +1422,213 @@
         <v>25</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="9">
+        <v>938</v>
+      </c>
+      <c r="F43" s="9">
+        <v>850</v>
+      </c>
+      <c r="G43" s="9">
+        <v>854</v>
+      </c>
+      <c r="H43" s="9">
+        <v>607</v>
+      </c>
+      <c r="I43" s="9">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F43" s="9">
-        <v>938</v>
-      </c>
-      <c r="G43" s="9">
-        <v>850</v>
-      </c>
-      <c r="H43" s="9">
-        <v>854</v>
-      </c>
-      <c r="I43" s="9">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>26</v>
+      <c r="E44" s="11">
+        <v>87214</v>
       </c>
       <c r="F44" s="11">
-        <v>87214</v>
+        <v>124835</v>
       </c>
       <c r="G44" s="11">
-        <v>124835</v>
+        <v>77173</v>
       </c>
       <c r="H44" s="11">
-        <v>77173</v>
+        <v>68666</v>
       </c>
       <c r="I44" s="11">
-        <v>68666</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62484</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
-        <v>26</v>
+      <c r="E45" s="9">
+        <v>2919</v>
       </c>
       <c r="F45" s="9">
-        <v>2919</v>
+        <v>2072</v>
       </c>
       <c r="G45" s="9">
-        <v>2072</v>
+        <v>1262</v>
       </c>
       <c r="H45" s="9">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="I45" s="9">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>26</v>
+      <c r="E46" s="11">
+        <v>4</v>
       </c>
       <c r="F46" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46" s="11">
-        <v>0</v>
+        <v>160856</v>
       </c>
       <c r="H46" s="11">
-        <v>160856</v>
+        <v>294</v>
       </c>
       <c r="I46" s="11">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>365586</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>26</v>
+      <c r="E47" s="9">
+        <v>2717</v>
       </c>
       <c r="F47" s="9">
-        <v>2717</v>
+        <v>1255</v>
       </c>
       <c r="G47" s="9">
-        <v>1255</v>
+        <v>253</v>
       </c>
       <c r="H47" s="9">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="I47" s="9">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>26</v>
+      <c r="E48" s="11">
+        <v>525</v>
       </c>
       <c r="F48" s="11">
-        <v>525</v>
+        <v>242</v>
       </c>
       <c r="G48" s="11">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="H48" s="11">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I48" s="11">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>26</v>
+      <c r="E49" s="9">
+        <v>91</v>
       </c>
       <c r="F49" s="9">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="G49" s="9">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>26</v>
+      <c r="E50" s="11">
+        <v>4892</v>
       </c>
       <c r="F50" s="11">
-        <v>4892</v>
+        <v>35285</v>
       </c>
       <c r="G50" s="11">
-        <v>35285</v>
+        <v>1633</v>
       </c>
       <c r="H50" s="11">
-        <v>1633</v>
+        <v>3675</v>
       </c>
       <c r="I50" s="11">
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25232</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>0</v>
+        <v>99300</v>
       </c>
       <c r="F51" s="15">
-        <v>99300</v>
+        <v>164608</v>
       </c>
       <c r="G51" s="15">
-        <v>164608</v>
+        <v>242141</v>
       </c>
       <c r="H51" s="15">
-        <v>242141</v>
+        <v>74716</v>
       </c>
       <c r="I51" s="15">
-        <v>74716</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>455747</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1638,7 +1638,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1648,7 +1648,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1658,9 +1658,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1680,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1690,7 +1690,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
@@ -1698,213 +1698,213 @@
         <v>25</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="9">
+        <v>890</v>
+      </c>
+      <c r="F57" s="9">
+        <v>833</v>
+      </c>
+      <c r="G57" s="9">
+        <v>835</v>
+      </c>
+      <c r="H57" s="9">
+        <v>626</v>
+      </c>
+      <c r="I57" s="9">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F57" s="9">
-        <v>890</v>
-      </c>
-      <c r="G57" s="9">
-        <v>833</v>
-      </c>
-      <c r="H57" s="9">
-        <v>835</v>
-      </c>
-      <c r="I57" s="9">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>26</v>
+      <c r="E58" s="11">
+        <v>9475</v>
       </c>
       <c r="F58" s="11">
-        <v>9475</v>
+        <v>96565</v>
       </c>
       <c r="G58" s="11">
-        <v>96565</v>
+        <v>105198</v>
       </c>
       <c r="H58" s="11">
-        <v>105198</v>
+        <v>74210</v>
       </c>
       <c r="I58" s="11">
-        <v>74210</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>59407</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>26</v>
+      <c r="E59" s="9">
+        <v>4568</v>
       </c>
       <c r="F59" s="9">
-        <v>4568</v>
+        <v>1748</v>
       </c>
       <c r="G59" s="9">
-        <v>1748</v>
+        <v>2066</v>
       </c>
       <c r="H59" s="9">
-        <v>2066</v>
+        <v>201</v>
       </c>
       <c r="I59" s="9">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>26</v>
+      <c r="E60" s="11">
+        <v>5</v>
       </c>
       <c r="F60" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G60" s="11">
-        <v>0</v>
+        <v>160856</v>
       </c>
       <c r="H60" s="11">
-        <v>160856</v>
+        <v>294</v>
       </c>
       <c r="I60" s="11">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>365586</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>26</v>
+      <c r="E61" s="9">
+        <v>4090</v>
       </c>
       <c r="F61" s="9">
-        <v>4090</v>
+        <v>1292</v>
       </c>
       <c r="G61" s="9">
-        <v>1292</v>
+        <v>1257</v>
       </c>
       <c r="H61" s="9">
-        <v>1257</v>
+        <v>106</v>
       </c>
       <c r="I61" s="9">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>1863</v>
       </c>
       <c r="F62" s="11">
-        <v>1863</v>
+        <v>223</v>
       </c>
       <c r="G62" s="11">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="H62" s="11">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="I62" s="11">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
-        <v>26</v>
+      <c r="E63" s="9">
+        <v>174</v>
       </c>
       <c r="F63" s="9">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="G63" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H63" s="9">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>26</v>
+      <c r="E64" s="11">
+        <v>112</v>
       </c>
       <c r="F64" s="11">
-        <v>112</v>
+        <v>35068</v>
       </c>
       <c r="G64" s="11">
-        <v>35068</v>
+        <v>1990</v>
       </c>
       <c r="H64" s="11">
-        <v>1990</v>
+        <v>4540</v>
       </c>
       <c r="I64" s="11">
-        <v>4540</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24947</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
-        <v>0</v>
+        <v>21177</v>
       </c>
       <c r="F65" s="15">
-        <v>21177</v>
+        <v>135763</v>
       </c>
       <c r="G65" s="15">
-        <v>135763</v>
+        <v>272379</v>
       </c>
       <c r="H65" s="15">
-        <v>272379</v>
+        <v>80072</v>
       </c>
       <c r="I65" s="15">
-        <v>80072</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>452460</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1914,7 +1914,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1924,7 +1924,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1934,9 +1934,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1956,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1966,7 +1966,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
@@ -1974,80 +1974,80 @@
         <v>25</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="9">
+        <v>90</v>
+      </c>
+      <c r="F71" s="9">
+        <v>107</v>
+      </c>
+      <c r="G71" s="9">
+        <v>126</v>
+      </c>
+      <c r="H71" s="9">
+        <v>106</v>
+      </c>
+      <c r="I71" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F71" s="9">
-        <v>90</v>
-      </c>
-      <c r="G71" s="9">
-        <v>107</v>
-      </c>
-      <c r="H71" s="9">
-        <v>126</v>
-      </c>
-      <c r="I71" s="9">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>26</v>
+      <c r="E72" s="11">
+        <v>106612</v>
       </c>
       <c r="F72" s="11">
-        <v>106612</v>
+        <v>49382</v>
       </c>
       <c r="G72" s="11">
-        <v>49382</v>
+        <v>21357</v>
       </c>
       <c r="H72" s="11">
-        <v>21357</v>
+        <v>15851</v>
       </c>
       <c r="I72" s="11">
-        <v>15851</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26129</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>26</v>
+      <c r="E73" s="9">
+        <v>2001</v>
       </c>
       <c r="F73" s="9">
-        <v>2001</v>
+        <v>2325</v>
       </c>
       <c r="G73" s="9">
-        <v>2325</v>
+        <v>1521</v>
       </c>
       <c r="H73" s="9">
-        <v>1521</v>
+        <v>2576</v>
       </c>
       <c r="I73" s="9">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>26</v>
+      <c r="E74" s="11">
+        <v>1</v>
       </c>
       <c r="F74" s="11">
         <v>1</v>
@@ -2062,125 +2062,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
-        <v>26</v>
+      <c r="E75" s="9">
+        <v>2175</v>
       </c>
       <c r="F75" s="9">
-        <v>2175</v>
+        <v>2138</v>
       </c>
       <c r="G75" s="9">
-        <v>2138</v>
+        <v>1134</v>
       </c>
       <c r="H75" s="9">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="I75" s="9">
         <v>1108</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>26</v>
+      <c r="E76" s="11">
+        <v>62</v>
       </c>
       <c r="F76" s="11">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G76" s="11">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H76" s="11">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="I76" s="11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>26</v>
+      <c r="E77" s="9">
+        <v>49</v>
       </c>
       <c r="F77" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="G77" s="9">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="H77" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>26</v>
+      <c r="E78" s="11">
+        <v>9880</v>
       </c>
       <c r="F78" s="11">
-        <v>9880</v>
+        <v>4617</v>
       </c>
       <c r="G78" s="11">
-        <v>4617</v>
+        <v>4260</v>
       </c>
       <c r="H78" s="11">
-        <v>4260</v>
+        <v>3383</v>
       </c>
       <c r="I78" s="11">
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>0</v>
+        <v>120870</v>
       </c>
       <c r="F79" s="15">
-        <v>120870</v>
+        <v>58735</v>
       </c>
       <c r="G79" s="15">
-        <v>58735</v>
+        <v>28497</v>
       </c>
       <c r="H79" s="15">
-        <v>28497</v>
+        <v>23141</v>
       </c>
       <c r="I79" s="15">
-        <v>23141</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33997</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2190,7 +2190,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2200,7 +2200,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2210,9 +2210,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2242,221 +2242,221 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="9">
+        <v>523</v>
+      </c>
+      <c r="F85" s="9">
+        <v>6514</v>
+      </c>
+      <c r="G85" s="9">
+        <v>8535</v>
+      </c>
+      <c r="H85" s="9">
+        <v>11593</v>
+      </c>
+      <c r="I85" s="9">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="9">
-        <v>523</v>
-      </c>
-      <c r="G85" s="9">
-        <v>6514</v>
-      </c>
-      <c r="H85" s="9">
-        <v>8535</v>
-      </c>
-      <c r="I85" s="9">
-        <v>11593</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
+      <c r="C86" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11">
+        <v>3537</v>
+      </c>
+      <c r="F86" s="11">
+        <v>3398</v>
+      </c>
+      <c r="G86" s="11">
+        <v>12728</v>
+      </c>
+      <c r="H86" s="11">
+        <v>8713</v>
+      </c>
+      <c r="I86" s="11">
+        <v>11914</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="11">
-        <v>3537</v>
-      </c>
-      <c r="G86" s="11">
-        <v>3398</v>
-      </c>
-      <c r="H86" s="11">
-        <v>12728</v>
-      </c>
-      <c r="I86" s="11">
-        <v>8713</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="8" t="s">
+      <c r="C87" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9">
+        <v>22542</v>
+      </c>
+      <c r="F87" s="9">
+        <v>4094</v>
+      </c>
+      <c r="G87" s="9">
+        <v>29384</v>
+      </c>
+      <c r="H87" s="9">
+        <v>93710</v>
+      </c>
+      <c r="I87" s="9">
+        <v>121516</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="9">
-        <v>22542</v>
-      </c>
-      <c r="G87" s="9">
-        <v>4094</v>
-      </c>
-      <c r="H87" s="9">
-        <v>29384</v>
-      </c>
-      <c r="I87" s="9">
-        <v>93710</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="C88" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>26</v>
+      <c r="E88" s="11">
+        <v>37</v>
       </c>
       <c r="F88" s="11">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G88" s="11">
         <v>25</v>
       </c>
       <c r="H88" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I88" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9">
+        <v>5557</v>
+      </c>
+      <c r="F89" s="9">
+        <v>3013</v>
+      </c>
+      <c r="G89" s="9">
+        <v>7749</v>
+      </c>
+      <c r="H89" s="9">
+        <v>2446</v>
+      </c>
+      <c r="I89" s="9">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F89" s="9">
-        <v>5557</v>
-      </c>
-      <c r="G89" s="9">
-        <v>3013</v>
-      </c>
-      <c r="H89" s="9">
-        <v>7749</v>
-      </c>
-      <c r="I89" s="9">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="10" t="s">
+      <c r="C90" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11">
+        <v>12412</v>
+      </c>
+      <c r="F90" s="11">
+        <v>1575</v>
+      </c>
+      <c r="G90" s="11">
+        <v>5775</v>
+      </c>
+      <c r="H90" s="11">
+        <v>9570</v>
+      </c>
+      <c r="I90" s="11">
+        <v>16360</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F90" s="11">
-        <v>12412</v>
-      </c>
-      <c r="G90" s="11">
-        <v>1575</v>
-      </c>
-      <c r="H90" s="11">
-        <v>5775</v>
-      </c>
-      <c r="I90" s="11">
-        <v>9570</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9">
+        <v>4769</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1321</v>
+      </c>
+      <c r="G91" s="9">
+        <v>6261</v>
+      </c>
+      <c r="H91" s="9">
+        <v>897</v>
+      </c>
+      <c r="I91" s="9">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F91" s="9">
-        <v>4769</v>
-      </c>
-      <c r="G91" s="9">
-        <v>1321</v>
-      </c>
-      <c r="H91" s="9">
-        <v>6261</v>
-      </c>
-      <c r="I91" s="9">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C92" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>26</v>
+      <c r="E92" s="11">
+        <v>24719</v>
       </c>
       <c r="F92" s="11">
-        <v>24719</v>
+        <v>21961</v>
       </c>
       <c r="G92" s="11">
-        <v>21961</v>
+        <v>83484</v>
       </c>
       <c r="H92" s="11">
-        <v>83484</v>
+        <v>66374</v>
       </c>
       <c r="I92" s="11">
-        <v>66374</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79558</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>0</v>
+        <v>74096</v>
       </c>
       <c r="F93" s="15">
-        <v>74096</v>
+        <v>41901</v>
       </c>
       <c r="G93" s="15">
-        <v>41901</v>
+        <v>153941</v>
       </c>
       <c r="H93" s="15">
-        <v>153941</v>
+        <v>193327</v>
       </c>
       <c r="I93" s="15">
-        <v>193327</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>247113</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2466,7 +2466,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2476,7 +2476,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2486,9 +2486,9 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2508,7 +2508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2518,221 +2518,221 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="9">
+        <v>8840</v>
+      </c>
+      <c r="F99" s="9">
+        <v>88441</v>
+      </c>
+      <c r="G99" s="9">
+        <v>95266</v>
+      </c>
+      <c r="H99" s="9">
+        <v>95431</v>
+      </c>
+      <c r="I99" s="9">
+        <v>155979</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F99" s="9">
-        <v>8840</v>
-      </c>
-      <c r="G99" s="9">
-        <v>88441</v>
-      </c>
-      <c r="H99" s="9">
-        <v>95266</v>
-      </c>
-      <c r="I99" s="9">
-        <v>95431</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
+      <c r="C100" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11">
+        <v>13814</v>
+      </c>
+      <c r="F100" s="11">
+        <v>29771</v>
+      </c>
+      <c r="G100" s="11">
+        <v>27041</v>
+      </c>
+      <c r="H100" s="11">
+        <v>36433</v>
+      </c>
+      <c r="I100" s="11">
+        <v>109924</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F100" s="11">
-        <v>13814</v>
-      </c>
-      <c r="G100" s="11">
-        <v>29771</v>
-      </c>
-      <c r="H100" s="11">
-        <v>27041</v>
-      </c>
-      <c r="I100" s="11">
-        <v>36433</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="8" t="s">
+      <c r="C101" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9">
+        <v>67717</v>
+      </c>
+      <c r="F101" s="9">
+        <v>88700</v>
+      </c>
+      <c r="G101" s="9">
+        <v>106181</v>
+      </c>
+      <c r="H101" s="9">
+        <v>94900</v>
+      </c>
+      <c r="I101" s="9">
+        <v>111130</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F101" s="9">
-        <v>67717</v>
-      </c>
-      <c r="G101" s="9">
-        <v>88700</v>
-      </c>
-      <c r="H101" s="9">
-        <v>106181</v>
-      </c>
-      <c r="I101" s="9">
-        <v>94900</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
+      <c r="C102" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11">
+        <v>114</v>
+      </c>
+      <c r="F102" s="11">
+        <v>0</v>
+      </c>
+      <c r="G102" s="11">
+        <v>8718</v>
+      </c>
+      <c r="H102" s="11">
+        <v>11382</v>
+      </c>
+      <c r="I102" s="11">
+        <v>32524</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102" s="11">
-        <v>114</v>
-      </c>
-      <c r="G102" s="11">
-        <v>0</v>
-      </c>
-      <c r="H102" s="11">
-        <v>8718</v>
-      </c>
-      <c r="I102" s="11">
-        <v>11382</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" s="8" t="s">
+      <c r="C103" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9">
+        <v>8018</v>
+      </c>
+      <c r="F103" s="9">
+        <v>6559</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1154</v>
+      </c>
+      <c r="H103" s="9">
+        <v>794</v>
+      </c>
+      <c r="I103" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F103" s="9">
-        <v>8018</v>
-      </c>
-      <c r="G103" s="9">
-        <v>6559</v>
-      </c>
-      <c r="H103" s="9">
-        <v>1154</v>
-      </c>
-      <c r="I103" s="9">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="10" t="s">
+      <c r="C104" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11">
+        <v>2341</v>
+      </c>
+      <c r="F104" s="11">
+        <v>18373</v>
+      </c>
+      <c r="G104" s="11">
+        <v>14374</v>
+      </c>
+      <c r="H104" s="11">
+        <v>15177</v>
+      </c>
+      <c r="I104" s="11">
+        <v>17077</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F104" s="11">
-        <v>2341</v>
-      </c>
-      <c r="G104" s="11">
-        <v>18373</v>
-      </c>
-      <c r="H104" s="11">
-        <v>14374</v>
-      </c>
-      <c r="I104" s="11">
-        <v>15177</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
+      <c r="C105" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9">
+        <v>1147</v>
+      </c>
+      <c r="F105" s="9">
+        <v>5622</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0</v>
+      </c>
+      <c r="H105" s="9">
+        <v>7308</v>
+      </c>
+      <c r="I105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F105" s="9">
-        <v>1147</v>
-      </c>
-      <c r="G105" s="9">
-        <v>5622</v>
-      </c>
-      <c r="H105" s="9">
-        <v>0</v>
-      </c>
-      <c r="I105" s="9">
-        <v>7308</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C106" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>26</v>
+      <c r="E106" s="11">
+        <v>72513</v>
       </c>
       <c r="F106" s="11">
-        <v>72513</v>
+        <v>96799</v>
       </c>
       <c r="G106" s="11">
-        <v>96799</v>
+        <v>21716</v>
       </c>
       <c r="H106" s="11">
-        <v>21716</v>
+        <v>72896</v>
       </c>
       <c r="I106" s="11">
-        <v>72896</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155316</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>0</v>
+        <v>174504</v>
       </c>
       <c r="F107" s="15">
-        <v>174504</v>
+        <v>334265</v>
       </c>
       <c r="G107" s="15">
-        <v>334265</v>
+        <v>274450</v>
       </c>
       <c r="H107" s="15">
-        <v>274450</v>
+        <v>334321</v>
       </c>
       <c r="I107" s="15">
-        <v>334321</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>581950</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2742,7 +2742,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2752,7 +2752,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2762,9 +2762,9 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2784,7 +2784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2794,221 +2794,221 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="9">
+        <v>2849</v>
+      </c>
+      <c r="F113" s="9">
+        <v>86420</v>
+      </c>
+      <c r="G113" s="9">
+        <v>92140</v>
+      </c>
+      <c r="H113" s="9">
+        <v>96915</v>
+      </c>
+      <c r="I113" s="9">
+        <v>157187</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F113" s="9">
-        <v>2849</v>
-      </c>
-      <c r="G113" s="9">
-        <v>86420</v>
-      </c>
-      <c r="H113" s="9">
-        <v>92140</v>
-      </c>
-      <c r="I113" s="9">
-        <v>96915</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
+      <c r="C114" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11">
+        <v>13953</v>
+      </c>
+      <c r="F114" s="11">
+        <v>20441</v>
+      </c>
+      <c r="G114" s="11">
+        <v>31055</v>
+      </c>
+      <c r="H114" s="11">
+        <v>33230</v>
+      </c>
+      <c r="I114" s="11">
+        <v>93032</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F114" s="11">
-        <v>13953</v>
-      </c>
-      <c r="G114" s="11">
-        <v>20441</v>
-      </c>
-      <c r="H114" s="11">
-        <v>31055</v>
-      </c>
-      <c r="I114" s="11">
-        <v>33230</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="8" t="s">
+      <c r="C115" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9">
+        <v>86165</v>
+      </c>
+      <c r="F115" s="9">
+        <v>63410</v>
+      </c>
+      <c r="G115" s="9">
+        <v>41855</v>
+      </c>
+      <c r="H115" s="9">
+        <v>25988</v>
+      </c>
+      <c r="I115" s="9">
+        <v>95864</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F115" s="9">
-        <v>86165</v>
-      </c>
-      <c r="G115" s="9">
-        <v>63410</v>
-      </c>
-      <c r="H115" s="9">
-        <v>41855</v>
-      </c>
-      <c r="I115" s="9">
-        <v>25988</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
+      <c r="C116" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11">
+        <v>126</v>
+      </c>
+      <c r="F116" s="11">
+        <v>0</v>
+      </c>
+      <c r="G116" s="11">
+        <v>8718</v>
+      </c>
+      <c r="H116" s="11">
+        <v>11382</v>
+      </c>
+      <c r="I116" s="11">
+        <v>32525</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F116" s="11">
-        <v>126</v>
-      </c>
-      <c r="G116" s="11">
-        <v>0</v>
-      </c>
-      <c r="H116" s="11">
-        <v>8718</v>
-      </c>
-      <c r="I116" s="11">
-        <v>11382</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="8" t="s">
+      <c r="C117" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9">
+        <v>10542</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1823</v>
+      </c>
+      <c r="G117" s="9">
+        <v>6294</v>
+      </c>
+      <c r="H117" s="9">
+        <v>269</v>
+      </c>
+      <c r="I117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C117" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="9">
-        <v>10542</v>
-      </c>
-      <c r="G117" s="9">
-        <v>1823</v>
-      </c>
-      <c r="H117" s="9">
-        <v>6294</v>
-      </c>
-      <c r="I117" s="9">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="10" t="s">
+      <c r="C118" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11">
+        <v>13178</v>
+      </c>
+      <c r="F118" s="11">
+        <v>14173</v>
+      </c>
+      <c r="G118" s="11">
+        <v>10579</v>
+      </c>
+      <c r="H118" s="11">
+        <v>8388</v>
+      </c>
+      <c r="I118" s="11">
+        <v>30598</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="11">
-        <v>13178</v>
-      </c>
-      <c r="G118" s="11">
-        <v>14173</v>
-      </c>
-      <c r="H118" s="11">
-        <v>10579</v>
-      </c>
-      <c r="I118" s="11">
-        <v>8388</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
+      <c r="C119" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9">
+        <v>4595</v>
+      </c>
+      <c r="F119" s="9">
+        <v>682</v>
+      </c>
+      <c r="G119" s="9">
+        <v>5364</v>
+      </c>
+      <c r="H119" s="9">
+        <v>3934</v>
+      </c>
+      <c r="I119" s="9">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9">
-        <v>4595</v>
-      </c>
-      <c r="G119" s="9">
-        <v>682</v>
-      </c>
-      <c r="H119" s="9">
-        <v>5364</v>
-      </c>
-      <c r="I119" s="9">
-        <v>3934</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C120" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>26</v>
+      <c r="E120" s="11">
+        <v>74778</v>
       </c>
       <c r="F120" s="11">
-        <v>74778</v>
+        <v>35277</v>
       </c>
       <c r="G120" s="11">
-        <v>35277</v>
+        <v>38335</v>
       </c>
       <c r="H120" s="11">
-        <v>38335</v>
+        <v>129888</v>
       </c>
       <c r="I120" s="11">
-        <v>129888</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>150347</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>0</v>
+        <v>206186</v>
       </c>
       <c r="F121" s="15">
-        <v>206186</v>
+        <v>222226</v>
       </c>
       <c r="G121" s="15">
-        <v>222226</v>
+        <v>234340</v>
       </c>
       <c r="H121" s="15">
-        <v>234340</v>
+        <v>309994</v>
       </c>
       <c r="I121" s="15">
-        <v>309994</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>560194</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3018,7 +3018,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3028,7 +3028,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3038,9 +3038,9 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3060,7 +3060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3070,88 +3070,88 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="9">
+        <v>6514</v>
+      </c>
+      <c r="F127" s="9">
+        <v>8535</v>
+      </c>
+      <c r="G127" s="9">
+        <v>11661</v>
+      </c>
+      <c r="H127" s="9">
+        <v>10109</v>
+      </c>
+      <c r="I127" s="9">
+        <v>8902</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F127" s="9">
-        <v>6514</v>
-      </c>
-      <c r="G127" s="9">
-        <v>8535</v>
-      </c>
-      <c r="H127" s="9">
-        <v>11661</v>
-      </c>
-      <c r="I127" s="9">
-        <v>10109</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="10" t="s">
+      <c r="C128" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11">
+        <v>3398</v>
+      </c>
+      <c r="F128" s="11">
+        <v>12728</v>
+      </c>
+      <c r="G128" s="11">
+        <v>8714</v>
+      </c>
+      <c r="H128" s="11">
+        <v>11916</v>
+      </c>
+      <c r="I128" s="11">
+        <v>28806</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F128" s="11">
-        <v>3398</v>
-      </c>
-      <c r="G128" s="11">
-        <v>12728</v>
-      </c>
-      <c r="H128" s="11">
-        <v>8714</v>
-      </c>
-      <c r="I128" s="11">
-        <v>11916</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
+      <c r="C129" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
+        <v>4094</v>
+      </c>
+      <c r="F129" s="9">
+        <v>29384</v>
+      </c>
+      <c r="G129" s="9">
+        <v>93710</v>
+      </c>
+      <c r="H129" s="9">
+        <v>162622</v>
+      </c>
+      <c r="I129" s="9">
+        <v>136782</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="9">
-        <v>4094</v>
-      </c>
-      <c r="G129" s="9">
-        <v>29384</v>
-      </c>
-      <c r="H129" s="9">
-        <v>93710</v>
-      </c>
-      <c r="I129" s="9">
-        <v>162622</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="C130" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>26</v>
+      <c r="E130" s="11">
+        <v>25</v>
       </c>
       <c r="F130" s="11">
         <v>25</v>
@@ -3160,131 +3160,131 @@
         <v>25</v>
       </c>
       <c r="H130" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I130" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D131" s="9"/>
-      <c r="E131" s="9" t="s">
-        <v>26</v>
+      <c r="E131" s="9">
+        <v>3033</v>
       </c>
       <c r="F131" s="9">
-        <v>3033</v>
+        <v>7749</v>
       </c>
       <c r="G131" s="9">
-        <v>7749</v>
+        <v>2609</v>
       </c>
       <c r="H131" s="9">
-        <v>2609</v>
+        <v>2971</v>
       </c>
       <c r="I131" s="9">
         <v>2971</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11">
+        <v>1575</v>
+      </c>
+      <c r="F132" s="11">
+        <v>5775</v>
+      </c>
+      <c r="G132" s="11">
+        <v>9570</v>
+      </c>
+      <c r="H132" s="11">
+        <v>16359</v>
+      </c>
+      <c r="I132" s="11">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F132" s="11">
-        <v>1575</v>
-      </c>
-      <c r="G132" s="11">
-        <v>5775</v>
-      </c>
-      <c r="H132" s="11">
-        <v>9570</v>
-      </c>
-      <c r="I132" s="11">
-        <v>16359</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="8" t="s">
+      <c r="C133" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9">
+        <v>1321</v>
+      </c>
+      <c r="F133" s="9">
+        <v>6261</v>
+      </c>
+      <c r="G133" s="9">
+        <v>897</v>
+      </c>
+      <c r="H133" s="9">
+        <v>4271</v>
+      </c>
+      <c r="I133" s="9">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C133" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" s="9">
-        <v>1321</v>
-      </c>
-      <c r="G133" s="9">
-        <v>6261</v>
-      </c>
-      <c r="H133" s="9">
-        <v>897</v>
-      </c>
-      <c r="I133" s="9">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C134" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>26</v>
+      <c r="E134" s="11">
+        <v>22454</v>
       </c>
       <c r="F134" s="11">
-        <v>22454</v>
+        <v>83483</v>
       </c>
       <c r="G134" s="11">
-        <v>83483</v>
+        <v>66865</v>
       </c>
       <c r="H134" s="11">
-        <v>66865</v>
+        <v>9382</v>
       </c>
       <c r="I134" s="11">
-        <v>9382</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>84527</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>0</v>
+        <v>42414</v>
       </c>
       <c r="F135" s="15">
-        <v>42414</v>
+        <v>153940</v>
       </c>
       <c r="G135" s="15">
-        <v>153940</v>
+        <v>194051</v>
       </c>
       <c r="H135" s="15">
-        <v>194051</v>
+        <v>217654</v>
       </c>
       <c r="I135" s="15">
-        <v>217654</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>268869</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3294,7 +3294,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3304,7 +3304,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3314,9 +3314,9 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3336,7 +3336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3346,199 +3346,199 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
+      <c r="E141" s="9">
+        <v>12452381</v>
+      </c>
+      <c r="F141" s="9">
+        <v>72377778</v>
+      </c>
+      <c r="G141" s="9">
+        <v>79766355</v>
+      </c>
+      <c r="H141" s="9">
+        <v>92744000</v>
+      </c>
+      <c r="I141" s="9">
+        <v>95377358</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F141" s="9">
-        <v>12452381</v>
-      </c>
-      <c r="G141" s="9">
-        <v>72377778</v>
-      </c>
-      <c r="H141" s="9">
-        <v>79766355</v>
-      </c>
-      <c r="I141" s="9">
-        <v>92744000</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="10" t="s">
+      <c r="C142" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11">
+        <v>122502</v>
+      </c>
+      <c r="F142" s="11">
+        <v>160951</v>
+      </c>
+      <c r="G142" s="11">
+        <v>257746</v>
+      </c>
+      <c r="H142" s="11">
+        <v>407245</v>
+      </c>
+      <c r="I142" s="11">
+        <v>516832</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C142" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F142" s="11">
-        <v>122502</v>
-      </c>
-      <c r="G142" s="11">
-        <v>160951</v>
-      </c>
-      <c r="H142" s="11">
-        <v>257746</v>
-      </c>
-      <c r="I142" s="11">
-        <v>407245</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="8" t="s">
+      <c r="C143" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9">
+        <v>6175890</v>
+      </c>
+      <c r="F143" s="9">
+        <v>2045977</v>
+      </c>
+      <c r="G143" s="9">
+        <v>12638280</v>
+      </c>
+      <c r="H143" s="9">
+        <v>61610782</v>
+      </c>
+      <c r="I143" s="9">
+        <v>60365623</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F143" s="9">
-        <v>6175890</v>
-      </c>
-      <c r="G143" s="9">
-        <v>2045977</v>
-      </c>
-      <c r="H143" s="9">
-        <v>12638280</v>
-      </c>
-      <c r="I143" s="9">
-        <v>61610782</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="C144" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>26</v>
+      <c r="E144" s="11">
+        <v>18500000</v>
       </c>
       <c r="F144" s="11">
-        <v>18500000</v>
+        <v>25000000</v>
       </c>
       <c r="G144" s="11">
         <v>25000000</v>
       </c>
       <c r="H144" s="11">
-        <v>25000000</v>
+        <v>24000000</v>
       </c>
       <c r="I144" s="11">
         <v>24000000</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9">
+        <v>1566235</v>
+      </c>
+      <c r="F145" s="9">
+        <v>1385287</v>
+      </c>
+      <c r="G145" s="9">
+        <v>3624415</v>
+      </c>
+      <c r="H145" s="9">
+        <v>2207581</v>
+      </c>
+      <c r="I145" s="9">
+        <v>2681408</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C145" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F145" s="9">
-        <v>1566235</v>
-      </c>
-      <c r="G145" s="9">
-        <v>1385287</v>
-      </c>
-      <c r="H145" s="9">
-        <v>3624415</v>
-      </c>
-      <c r="I145" s="9">
-        <v>2207581</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
+      <c r="C146" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11">
+        <v>8865714</v>
+      </c>
+      <c r="F146" s="11">
+        <v>25403226</v>
+      </c>
+      <c r="G146" s="11">
+        <v>71296296</v>
+      </c>
+      <c r="H146" s="11">
+        <v>156885246</v>
+      </c>
+      <c r="I146" s="11">
+        <v>163600000</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C146" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F146" s="11">
-        <v>8865714</v>
-      </c>
-      <c r="G146" s="11">
-        <v>25403226</v>
-      </c>
-      <c r="H146" s="11">
-        <v>71296296</v>
-      </c>
-      <c r="I146" s="11">
-        <v>156885246</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="8" t="s">
+      <c r="C147" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9">
+        <v>36128788</v>
+      </c>
+      <c r="F147" s="9">
+        <v>26959184</v>
+      </c>
+      <c r="G147" s="9">
+        <v>74535714</v>
+      </c>
+      <c r="H147" s="9">
+        <v>23605263</v>
+      </c>
+      <c r="I147" s="9">
+        <v>245263158</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F147" s="9">
-        <v>36128788</v>
-      </c>
-      <c r="G147" s="9">
-        <v>26959184</v>
-      </c>
-      <c r="H147" s="9">
-        <v>74535714</v>
-      </c>
-      <c r="I147" s="9">
-        <v>23605263</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C148" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>26</v>
+      <c r="E148" s="11">
+        <v>4846863</v>
       </c>
       <c r="F148" s="11">
-        <v>4846863</v>
+        <v>4991136</v>
       </c>
       <c r="G148" s="11">
-        <v>4991136</v>
+        <v>18081871</v>
       </c>
       <c r="H148" s="11">
-        <v>18081871</v>
+        <v>15624765</v>
       </c>
       <c r="I148" s="11">
-        <v>15624765</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18454651</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3548,7 +3548,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3558,7 +3558,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3568,9 +3568,9 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -3590,7 +3590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3600,199 +3600,199 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D154" s="9"/>
-      <c r="E154" s="9" t="s">
+      <c r="E154" s="9">
+        <v>9424307</v>
+      </c>
+      <c r="F154" s="9">
+        <v>104048235</v>
+      </c>
+      <c r="G154" s="9">
+        <v>111552693</v>
+      </c>
+      <c r="H154" s="9">
+        <v>157217463</v>
+      </c>
+      <c r="I154" s="9">
+        <v>252802269</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F154" s="9">
-        <v>9424307</v>
-      </c>
-      <c r="G154" s="9">
-        <v>104048235</v>
-      </c>
-      <c r="H154" s="9">
-        <v>111552693</v>
-      </c>
-      <c r="I154" s="9">
-        <v>157217463</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
+      <c r="C155" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11">
+        <v>158392</v>
+      </c>
+      <c r="F155" s="11">
+        <v>238483</v>
+      </c>
+      <c r="G155" s="11">
+        <v>350395</v>
+      </c>
+      <c r="H155" s="11">
+        <v>530583</v>
+      </c>
+      <c r="I155" s="11">
+        <v>1759234</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F155" s="11">
-        <v>158392</v>
-      </c>
-      <c r="G155" s="11">
-        <v>238483</v>
-      </c>
-      <c r="H155" s="11">
-        <v>350395</v>
-      </c>
-      <c r="I155" s="11">
-        <v>530583</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="8" t="s">
+      <c r="C156" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9">
+        <v>23198698</v>
+      </c>
+      <c r="F156" s="9">
+        <v>42808880</v>
+      </c>
+      <c r="G156" s="9">
+        <v>84137084</v>
+      </c>
+      <c r="H156" s="9">
+        <v>75557325</v>
+      </c>
+      <c r="I156" s="9">
+        <v>63904543</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C156" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F156" s="9">
-        <v>23198698</v>
-      </c>
-      <c r="G156" s="9">
-        <v>42808880</v>
-      </c>
-      <c r="H156" s="9">
-        <v>84137084</v>
-      </c>
-      <c r="I156" s="9">
-        <v>75557325</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="10" t="s">
+      <c r="C157" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11">
+        <v>28500000</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G157" s="11">
+        <v>54198</v>
+      </c>
+      <c r="H157" s="11">
+        <v>38714286</v>
+      </c>
+      <c r="I157" s="11">
+        <v>88964</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C157" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F157" s="11">
-        <v>28500000</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H157" s="11">
-        <v>54198</v>
-      </c>
-      <c r="I157" s="11">
-        <v>38714286</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="8" t="s">
+      <c r="C158" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9">
+        <v>2951049</v>
+      </c>
+      <c r="F158" s="9">
+        <v>5226295</v>
+      </c>
+      <c r="G158" s="9">
+        <v>4561265</v>
+      </c>
+      <c r="H158" s="9">
+        <v>7490566</v>
+      </c>
+      <c r="I158" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C158" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F158" s="9">
-        <v>2951049</v>
-      </c>
-      <c r="G158" s="9">
-        <v>5226295</v>
-      </c>
-      <c r="H158" s="9">
-        <v>4561265</v>
-      </c>
-      <c r="I158" s="9">
-        <v>7490566</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="10" t="s">
+      <c r="C159" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11">
+        <v>4459048</v>
+      </c>
+      <c r="F159" s="11">
+        <v>75921488</v>
+      </c>
+      <c r="G159" s="11">
+        <v>130672727</v>
+      </c>
+      <c r="H159" s="11">
+        <v>164967391</v>
+      </c>
+      <c r="I159" s="11">
+        <v>191876404</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C159" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F159" s="11">
-        <v>4459048</v>
-      </c>
-      <c r="G159" s="11">
-        <v>75921488</v>
-      </c>
-      <c r="H159" s="11">
-        <v>130672727</v>
-      </c>
-      <c r="I159" s="11">
-        <v>164967391</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="8" t="s">
+      <c r="C160" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9">
+        <v>12604396</v>
+      </c>
+      <c r="F160" s="9">
+        <v>81478261</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="9">
+        <v>365400000</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F160" s="9">
-        <v>12604396</v>
-      </c>
-      <c r="G160" s="9">
-        <v>81478261</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I160" s="9">
-        <v>365400000</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B161" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C161" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="11" t="s">
-        <v>26</v>
+      <c r="E161" s="11">
+        <v>14822772</v>
       </c>
       <c r="F161" s="11">
-        <v>14822772</v>
+        <v>2743347</v>
       </c>
       <c r="G161" s="11">
-        <v>2743347</v>
+        <v>13298224</v>
       </c>
       <c r="H161" s="11">
-        <v>13298224</v>
+        <v>19835646</v>
       </c>
       <c r="I161" s="11">
-        <v>19835646</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6155517</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3802,7 +3802,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3812,7 +3812,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3822,7 +3822,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
         <v>45</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3854,199 +3854,199 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D167" s="9"/>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="9">
+        <v>3201124</v>
+      </c>
+      <c r="F167" s="9">
+        <v>103745498</v>
+      </c>
+      <c r="G167" s="9">
+        <v>110347305</v>
+      </c>
+      <c r="H167" s="9">
+        <v>154816294</v>
+      </c>
+      <c r="I167" s="9">
+        <v>250297771</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F167" s="9">
-        <v>3201124</v>
-      </c>
-      <c r="G167" s="9">
-        <v>103745498</v>
-      </c>
-      <c r="H167" s="9">
-        <v>110347305</v>
-      </c>
-      <c r="I167" s="9">
-        <v>154816294</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B168" s="10" t="s">
+      <c r="C168" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11">
+        <v>1472612</v>
+      </c>
+      <c r="F168" s="11">
+        <v>211681</v>
+      </c>
+      <c r="G168" s="11">
+        <v>295205</v>
+      </c>
+      <c r="H168" s="11">
+        <v>447783</v>
+      </c>
+      <c r="I168" s="11">
+        <v>1566011</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C168" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F168" s="11">
-        <v>1472612</v>
-      </c>
-      <c r="G168" s="11">
-        <v>211681</v>
-      </c>
-      <c r="H168" s="11">
-        <v>295205</v>
-      </c>
-      <c r="I168" s="11">
-        <v>447783</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B169" s="8" t="s">
+      <c r="C169" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9">
+        <v>18862741</v>
+      </c>
+      <c r="F169" s="9">
+        <v>36275744</v>
+      </c>
+      <c r="G169" s="9">
+        <v>20258955</v>
+      </c>
+      <c r="H169" s="9">
+        <v>129293532</v>
+      </c>
+      <c r="I169" s="9">
+        <v>55897376</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C169" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F169" s="9">
-        <v>18862741</v>
-      </c>
-      <c r="G169" s="9">
-        <v>36275744</v>
-      </c>
-      <c r="H169" s="9">
-        <v>20258955</v>
-      </c>
-      <c r="I169" s="9">
-        <v>129293532</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B170" s="10" t="s">
+      <c r="C170" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11">
+        <v>25200000</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G170" s="11">
+        <v>54198</v>
+      </c>
+      <c r="H170" s="11">
+        <v>38714286</v>
+      </c>
+      <c r="I170" s="11">
+        <v>88967</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C170" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F170" s="11">
-        <v>25200000</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H170" s="11">
-        <v>54198</v>
-      </c>
-      <c r="I170" s="11">
-        <v>38714286</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B171" s="8" t="s">
+      <c r="C171" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9">
+        <v>2577506</v>
+      </c>
+      <c r="F171" s="9">
+        <v>1410991</v>
+      </c>
+      <c r="G171" s="9">
+        <v>5007160</v>
+      </c>
+      <c r="H171" s="9">
+        <v>2537736</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C171" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F171" s="9">
-        <v>2577506</v>
-      </c>
-      <c r="G171" s="9">
-        <v>1410991</v>
-      </c>
-      <c r="H171" s="9">
-        <v>5007160</v>
-      </c>
-      <c r="I171" s="9">
-        <v>2537736</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B172" s="10" t="s">
+      <c r="C172" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11">
+        <v>7073537</v>
+      </c>
+      <c r="F172" s="11">
+        <v>63556054</v>
+      </c>
+      <c r="G172" s="11">
+        <v>81376923</v>
+      </c>
+      <c r="H172" s="11">
+        <v>158264151</v>
+      </c>
+      <c r="I172" s="11">
+        <v>176867052</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C172" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F172" s="11">
-        <v>7073537</v>
-      </c>
-      <c r="G172" s="11">
-        <v>63556054</v>
-      </c>
-      <c r="H172" s="11">
-        <v>81376923</v>
-      </c>
-      <c r="I172" s="11">
-        <v>158264151</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B173" s="8" t="s">
+      <c r="C173" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9">
+        <v>26408046</v>
+      </c>
+      <c r="F173" s="9">
+        <v>20058824</v>
+      </c>
+      <c r="G173" s="9">
+        <v>114127660</v>
+      </c>
+      <c r="H173" s="9">
+        <v>93666667</v>
+      </c>
+      <c r="I173" s="9">
+        <v>160250000</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C173" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F173" s="9">
-        <v>26408046</v>
-      </c>
-      <c r="G173" s="9">
-        <v>20058824</v>
-      </c>
-      <c r="H173" s="9">
-        <v>114127660</v>
-      </c>
-      <c r="I173" s="9">
-        <v>93666667</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B174" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="C174" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="11" t="s">
-        <v>26</v>
+      <c r="E174" s="11">
+        <v>667660714</v>
       </c>
       <c r="F174" s="11">
-        <v>667660714</v>
+        <v>1005960</v>
       </c>
       <c r="G174" s="11">
-        <v>1005960</v>
+        <v>19263819</v>
       </c>
       <c r="H174" s="11">
-        <v>19263819</v>
+        <v>28609692</v>
       </c>
       <c r="I174" s="11">
-        <v>28609692</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6026657</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4056,7 +4056,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4066,7 +4066,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4076,7 +4076,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
         <v>46</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4108,7 +4108,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>24</v>
       </c>
@@ -4116,80 +4116,80 @@
         <v>25</v>
       </c>
       <c r="D180" s="9"/>
-      <c r="E180" s="9" t="s">
+      <c r="E180" s="9">
+        <v>72377778</v>
+      </c>
+      <c r="F180" s="9">
+        <v>79766355</v>
+      </c>
+      <c r="G180" s="9">
+        <v>92547619</v>
+      </c>
+      <c r="H180" s="9">
+        <v>95367925</v>
+      </c>
+      <c r="I180" s="9">
+        <v>93705263</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B181" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F180" s="9">
-        <v>72377778</v>
-      </c>
-      <c r="G180" s="9">
-        <v>79766355</v>
-      </c>
-      <c r="H180" s="9">
-        <v>92547619</v>
-      </c>
-      <c r="I180" s="9">
-        <v>95367925</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D181" s="11"/>
-      <c r="E181" s="11" t="s">
-        <v>26</v>
+      <c r="E181" s="11">
+        <v>31873</v>
       </c>
       <c r="F181" s="11">
-        <v>31873</v>
+        <v>257746</v>
       </c>
       <c r="G181" s="11">
-        <v>257746</v>
+        <v>408016</v>
       </c>
       <c r="H181" s="11">
-        <v>408016</v>
+        <v>751751</v>
       </c>
       <c r="I181" s="11">
-        <v>751751</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1102453</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C182" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D182" s="9"/>
-      <c r="E182" s="9" t="s">
-        <v>26</v>
+      <c r="E182" s="9">
+        <v>2045977</v>
       </c>
       <c r="F182" s="9">
-        <v>2045977</v>
+        <v>12638280</v>
       </c>
       <c r="G182" s="9">
-        <v>12638280</v>
+        <v>61610782</v>
       </c>
       <c r="H182" s="9">
-        <v>61610782</v>
+        <v>63129658</v>
       </c>
       <c r="I182" s="9">
-        <v>63129658</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67148748</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C183" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D183" s="11"/>
-      <c r="E183" s="11" t="s">
-        <v>26</v>
+      <c r="E183" s="11">
+        <v>25000000</v>
       </c>
       <c r="F183" s="11">
         <v>25000000</v>
@@ -4198,109 +4198,109 @@
         <v>25000000</v>
       </c>
       <c r="H183" s="11">
-        <v>25000000</v>
+        <v>24000000</v>
       </c>
       <c r="I183" s="11">
-        <v>24000000</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23000000</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C184" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D184" s="9"/>
-      <c r="E184" s="9" t="s">
-        <v>26</v>
+      <c r="E184" s="9">
+        <v>1394483</v>
       </c>
       <c r="F184" s="9">
-        <v>1394483</v>
+        <v>3624415</v>
       </c>
       <c r="G184" s="9">
-        <v>3624415</v>
+        <v>2300705</v>
       </c>
       <c r="H184" s="9">
-        <v>2300705</v>
+        <v>2681408</v>
       </c>
       <c r="I184" s="9">
         <v>2681408</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C185" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D185" s="11"/>
-      <c r="E185" s="11" t="s">
-        <v>26</v>
+      <c r="E185" s="11">
+        <v>25403226</v>
       </c>
       <c r="F185" s="11">
-        <v>25403226</v>
+        <v>71296296</v>
       </c>
       <c r="G185" s="11">
-        <v>71296296</v>
+        <v>156885246</v>
       </c>
       <c r="H185" s="11">
-        <v>156885246</v>
+        <v>163590000</v>
       </c>
       <c r="I185" s="11">
-        <v>163590000</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177437500</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C186" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D186" s="9"/>
-      <c r="E186" s="9" t="s">
-        <v>26</v>
+      <c r="E186" s="9">
+        <v>26959184</v>
       </c>
       <c r="F186" s="9">
-        <v>26959184</v>
+        <v>74535714</v>
       </c>
       <c r="G186" s="9">
-        <v>74535714</v>
+        <v>24243243</v>
       </c>
       <c r="H186" s="9">
-        <v>24243243</v>
+        <v>266937500</v>
       </c>
       <c r="I186" s="9">
-        <v>266937500</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>267933333</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C187" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D187" s="11"/>
-      <c r="E187" s="11" t="s">
-        <v>26</v>
+      <c r="E187" s="11">
+        <v>2272672</v>
       </c>
       <c r="F187" s="11">
-        <v>2272672</v>
+        <v>18081655</v>
       </c>
       <c r="G187" s="11">
-        <v>18081655</v>
+        <v>15696009</v>
       </c>
       <c r="H187" s="11">
-        <v>15696009</v>
+        <v>2773278</v>
       </c>
       <c r="I187" s="11">
-        <v>2773278</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18391427</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4310,7 +4310,7 @@
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4320,7 +4320,7 @@
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4330,7 +4330,7 @@
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B191" s="7" t="s">
         <v>47</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4362,7 +4362,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>48</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>49</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>50</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>51</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>52</v>
       </c>
@@ -4472,73 +4472,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11">
-        <v>45108</v>
+        <v>55487</v>
       </c>
       <c r="F198" s="11">
-        <v>55487</v>
+        <v>82232</v>
       </c>
       <c r="G198" s="11">
-        <v>82232</v>
+        <v>93329</v>
       </c>
       <c r="H198" s="11">
-        <v>93329</v>
+        <v>261588</v>
       </c>
       <c r="I198" s="11">
-        <v>261588</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+        <v>589772</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9">
-        <v>7586</v>
+        <v>3505</v>
       </c>
       <c r="F199" s="9">
-        <v>3505</v>
+        <v>3627</v>
       </c>
       <c r="G199" s="9">
-        <v>3627</v>
+        <v>4621</v>
       </c>
       <c r="H199" s="9">
-        <v>4621</v>
+        <v>7602</v>
       </c>
       <c r="I199" s="9">
-        <v>7602</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+        <v>187251</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11">
-        <v>69455</v>
+        <v>119577</v>
       </c>
       <c r="F200" s="11">
-        <v>119577</v>
+        <v>158677</v>
       </c>
       <c r="G200" s="11">
-        <v>158677</v>
+        <v>234643</v>
       </c>
       <c r="H200" s="11">
-        <v>234643</v>
+        <v>331332</v>
       </c>
       <c r="I200" s="11">
-        <v>331332</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+        <v>516718</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>56</v>
       </c>
@@ -4560,48 +4560,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11">
-        <v>115148</v>
+        <v>208761</v>
       </c>
       <c r="F202" s="11">
-        <v>208761</v>
+        <v>254229</v>
       </c>
       <c r="G202" s="11">
-        <v>254229</v>
+        <v>405058</v>
       </c>
       <c r="H202" s="11">
-        <v>405058</v>
+        <v>501594</v>
       </c>
       <c r="I202" s="11">
-        <v>501594</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+        <v>688584</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15">
-        <v>237297</v>
+        <v>387330</v>
       </c>
       <c r="F203" s="15">
-        <v>387330</v>
+        <v>498765</v>
       </c>
       <c r="G203" s="15">
-        <v>498765</v>
+        <v>737651</v>
       </c>
       <c r="H203" s="15">
-        <v>737651</v>
+        <v>1102116</v>
       </c>
       <c r="I203" s="15">
-        <v>1102116</v>
+        <v>1982325</v>
       </c>
     </row>
   </sheetData>
